--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H2">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I2">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J2">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>1615.64034077328</v>
+        <v>1252.739365196534</v>
       </c>
       <c r="R2">
-        <v>6462.56136309312</v>
+        <v>5010.957460786138</v>
       </c>
       <c r="S2">
-        <v>0.2136240431490946</v>
+        <v>0.3770848081571034</v>
       </c>
       <c r="T2">
-        <v>0.1440055308350164</v>
+        <v>0.2852693805155069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H3">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I3">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J3">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>101.6260733799867</v>
+        <v>71.54882438901733</v>
       </c>
       <c r="R3">
-        <v>609.7564402799201</v>
+        <v>429.292946334104</v>
       </c>
       <c r="S3">
-        <v>0.01343725588976602</v>
+        <v>0.02153678208584606</v>
       </c>
       <c r="T3">
-        <v>0.01358722879817313</v>
+        <v>0.02443926810769493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H4">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I4">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J4">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>302.2973403157667</v>
+        <v>240.6250185232999</v>
       </c>
       <c r="R4">
-        <v>1813.7840418946</v>
+        <v>1443.750111139799</v>
       </c>
       <c r="S4">
-        <v>0.0399705172257357</v>
+        <v>0.07243010115948817</v>
       </c>
       <c r="T4">
-        <v>0.04041662726249148</v>
+        <v>0.08219141811661498</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H5">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I5">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J5">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>765.1290051949376</v>
+        <v>341.8511173555988</v>
       </c>
       <c r="R5">
-        <v>3060.51602077975</v>
+        <v>1367.404469422395</v>
       </c>
       <c r="S5">
-        <v>0.1011672879758354</v>
+        <v>0.1028999858929986</v>
       </c>
       <c r="T5">
-        <v>0.06819760918920181</v>
+        <v>0.07784512819333834</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H6">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I6">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J6">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>1079.192253661924</v>
+        <v>428.4271099527792</v>
       </c>
       <c r="R6">
-        <v>6475.153521971542</v>
+        <v>2570.562659716675</v>
       </c>
       <c r="S6">
-        <v>0.1426935232702232</v>
+        <v>0.1289600686735831</v>
       </c>
       <c r="T6">
-        <v>0.1442861224490476</v>
+        <v>0.1463398608454015</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.087655</v>
+        <v>16.9586735</v>
       </c>
       <c r="H7">
-        <v>48.17531</v>
+        <v>33.917347</v>
       </c>
       <c r="I7">
-        <v>0.5497057494739803</v>
+        <v>0.7483339552041497</v>
       </c>
       <c r="J7">
-        <v>0.4497394328717221</v>
+        <v>0.6676287611063231</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>293.5439507225133</v>
+        <v>150.900244009126</v>
       </c>
       <c r="R7">
-        <v>1761.26370433508</v>
+        <v>905.4014640547559</v>
       </c>
       <c r="S7">
-        <v>0.03881312196332538</v>
+        <v>0.04542220923513036</v>
       </c>
       <c r="T7">
-        <v>0.03924631433779175</v>
+        <v>0.05154370532776639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H8">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I8">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J8">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N8">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O8">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P8">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q8">
-        <v>163.754013340416</v>
+        <v>147.159560931653</v>
       </c>
       <c r="R8">
-        <v>982.5240800424959</v>
+        <v>882.957365589918</v>
       </c>
       <c r="S8">
-        <v>0.02165196889979078</v>
+        <v>0.04429623299471411</v>
       </c>
       <c r="T8">
-        <v>0.02189362603390216</v>
+        <v>0.05026598263397029</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H9">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I9">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J9">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P9">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q9">
-        <v>10.30036014577067</v>
+        <v>8.404855690482668</v>
       </c>
       <c r="R9">
-        <v>92.70324131193601</v>
+        <v>75.64370121434401</v>
       </c>
       <c r="S9">
-        <v>0.001361939612858495</v>
+        <v>0.002529930393890494</v>
       </c>
       <c r="T9">
-        <v>0.00206571028501035</v>
+        <v>0.00430632907067837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H10">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J10">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N10">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O10">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P10">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q10">
-        <v>30.63949410618666</v>
+        <v>28.26627234588767</v>
       </c>
       <c r="R10">
-        <v>275.75544695568</v>
+        <v>254.396451112989</v>
       </c>
       <c r="S10">
-        <v>0.004051231233724775</v>
+        <v>0.008508379461032823</v>
       </c>
       <c r="T10">
-        <v>0.006144670400544359</v>
+        <v>0.0144825651748719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H11">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J11">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N11">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O11">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P11">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q11">
-        <v>77.55002283729999</v>
+        <v>40.15732380705751</v>
       </c>
       <c r="R11">
-        <v>465.3001370238</v>
+        <v>240.9439428423451</v>
       </c>
       <c r="S11">
-        <v>0.01025385972776561</v>
+        <v>0.01208768333188869</v>
       </c>
       <c r="T11">
-        <v>0.0103683028237658</v>
+        <v>0.01371672576578135</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H12">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J12">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N12">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O12">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P12">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q12">
-        <v>109.3820562925813</v>
+        <v>50.32742415815834</v>
       </c>
       <c r="R12">
-        <v>984.4385066332321</v>
+        <v>452.9468174234251</v>
       </c>
       <c r="S12">
-        <v>0.01446277152376582</v>
+        <v>0.01514896682498918</v>
       </c>
       <c r="T12">
-        <v>0.02193628528337839</v>
+        <v>0.02578586208803689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.441416</v>
+        <v>1.992139</v>
       </c>
       <c r="H13">
-        <v>7.324248</v>
+        <v>5.976417000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571569387131155</v>
+        <v>0.08790694963178811</v>
       </c>
       <c r="J13">
-        <v>0.06837533877274157</v>
+        <v>0.117639739852435</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N13">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O13">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P13">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q13">
-        <v>29.75229004222933</v>
+        <v>17.726283910124</v>
       </c>
       <c r="R13">
-        <v>267.7706103800639</v>
+        <v>159.536555191116</v>
       </c>
       <c r="S13">
-        <v>0.003933922873406066</v>
+        <v>0.005335756625272806</v>
       </c>
       <c r="T13">
-        <v>0.005966743946140513</v>
+        <v>0.009082275119096246</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H14">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I14">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J14">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N14">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O14">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P14">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q14">
-        <v>16.876600428864</v>
+        <v>16.5719134859895</v>
       </c>
       <c r="R14">
-        <v>67.50640171545599</v>
+        <v>66.28765394395799</v>
       </c>
       <c r="S14">
-        <v>0.002231466699141793</v>
+        <v>0.004988281673961843</v>
       </c>
       <c r="T14">
-        <v>0.001504248032260584</v>
+        <v>0.003773697566662749</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H15">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I15">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J15">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P15">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q15">
-        <v>1.061562149882667</v>
+        <v>0.9464865244439999</v>
       </c>
       <c r="R15">
-        <v>6.369372899296001</v>
+        <v>5.678919146664001</v>
       </c>
       <c r="S15">
-        <v>0.0001403624264565225</v>
+        <v>0.0002849001950515514</v>
       </c>
       <c r="T15">
-        <v>0.0001419290083166474</v>
+        <v>0.0003232958490755847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H16">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I16">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J16">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N16">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O16">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P16">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q16">
-        <v>3.157727183746666</v>
+        <v>3.1831178139015</v>
       </c>
       <c r="R16">
-        <v>18.94636310248</v>
+        <v>19.098706883409</v>
       </c>
       <c r="S16">
-        <v>0.0004175226571966537</v>
+        <v>0.0009581445299343631</v>
       </c>
       <c r="T16">
-        <v>0.000422182618109755</v>
+        <v>0.001087272507083424</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H17">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I17">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J17">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N17">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O17">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P17">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q17">
-        <v>7.992358306075</v>
+        <v>4.52219136661125</v>
       </c>
       <c r="R17">
-        <v>31.9694332243</v>
+        <v>18.088765466445</v>
       </c>
       <c r="S17">
-        <v>0.001056769785051797</v>
+        <v>0.00136121663556153</v>
       </c>
       <c r="T17">
-        <v>0.0007123762457795009</v>
+        <v>0.001029777434608976</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H18">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I18">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J18">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N18">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O18">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P18">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q18">
-        <v>11.27298940942534</v>
+        <v>5.6674653949875</v>
       </c>
       <c r="R18">
-        <v>67.63793645655201</v>
+        <v>34.00479236992501</v>
       </c>
       <c r="S18">
-        <v>0.001490543108663502</v>
+        <v>0.001705953497254878</v>
       </c>
       <c r="T18">
-        <v>0.001507179026513567</v>
+        <v>0.001935862782679677</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.251614</v>
+        <v>0.2243385</v>
       </c>
       <c r="H19">
-        <v>0.503228</v>
+        <v>0.448677</v>
       </c>
       <c r="I19">
-        <v>0.00574209745399235</v>
+        <v>0.009899366068316968</v>
       </c>
       <c r="J19">
-        <v>0.00469787273450178</v>
+        <v>0.008831754135926424</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N19">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O19">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P19">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q19">
-        <v>3.066291327117333</v>
+        <v>1.996189996266</v>
       </c>
       <c r="R19">
-        <v>18.397747962704</v>
+        <v>11.977139977596</v>
       </c>
       <c r="S19">
-        <v>0.0004054327774820817</v>
+        <v>0.0006008695365528025</v>
       </c>
       <c r="T19">
-        <v>0.0004099578035217265</v>
+        <v>0.0006818479958160124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H20">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I20">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J20">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N20">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O20">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P20">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q20">
-        <v>893.82640412464</v>
+        <v>216.6205031679013</v>
       </c>
       <c r="R20">
-        <v>5362.95842474784</v>
+        <v>1299.723019007408</v>
       </c>
       <c r="S20">
-        <v>0.1181839828480223</v>
+        <v>0.0652045454539926</v>
       </c>
       <c r="T20">
-        <v>0.1195030316017454</v>
+        <v>0.07399208302515099</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H21">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I21">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J21">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P21">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q21">
-        <v>56.22295101338223</v>
+        <v>12.37204064214044</v>
       </c>
       <c r="R21">
-        <v>506.0065591204401</v>
+        <v>111.348365779264</v>
       </c>
       <c r="S21">
-        <v>0.007433940469389172</v>
+        <v>0.0037240855533597</v>
       </c>
       <c r="T21">
-        <v>0.01127536576569743</v>
+        <v>0.006338964075396763</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H22">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I22">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J22">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N22">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O22">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P22">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q22">
-        <v>167.2410237921889</v>
+        <v>41.60826588148711</v>
       </c>
       <c r="R22">
-        <v>1505.1692141297</v>
+        <v>374.474392933384</v>
       </c>
       <c r="S22">
-        <v>0.02211303022167778</v>
+        <v>0.01252442877869399</v>
       </c>
       <c r="T22">
-        <v>0.03353974987612797</v>
+        <v>0.0213184963007584</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H23">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I23">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J23">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N23">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O23">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P23">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q23">
-        <v>423.2950181706458</v>
+        <v>59.11202530022</v>
       </c>
       <c r="R23">
-        <v>2539.770109023875</v>
+        <v>354.6721518013201</v>
       </c>
       <c r="S23">
-        <v>0.0559691355460975</v>
+        <v>0.01779320370970727</v>
       </c>
       <c r="T23">
-        <v>0.05659380579929057</v>
+        <v>0.02019117221054823</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H24">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I24">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J24">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N24">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O24">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P24">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q24">
-        <v>597.0453368279479</v>
+        <v>74.08252562908889</v>
       </c>
       <c r="R24">
-        <v>5373.408031451531</v>
+        <v>666.7427306618001</v>
       </c>
       <c r="S24">
-        <v>0.07894284116194721</v>
+        <v>0.02229944690870002</v>
       </c>
       <c r="T24">
-        <v>0.1197358806341702</v>
+        <v>0.03795707451670717</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.32609833333333</v>
+        <v>2.932450666666667</v>
       </c>
       <c r="H25">
-        <v>39.978295</v>
+        <v>8.797352</v>
       </c>
       <c r="I25">
-        <v>0.3041156506056302</v>
+        <v>0.1294000032389156</v>
       </c>
       <c r="J25">
-        <v>0.3732163990325834</v>
+        <v>0.1731669996705884</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N25">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O25">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P25">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q25">
-        <v>162.3983551941178</v>
+        <v>26.09328619627733</v>
       </c>
       <c r="R25">
-        <v>1461.58519674706</v>
+        <v>234.839575766496</v>
       </c>
       <c r="S25">
-        <v>0.02147272035849624</v>
+        <v>0.007854292834462014</v>
       </c>
       <c r="T25">
-        <v>0.0325685653555518</v>
+        <v>0.01336920954202687</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H26">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I26">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J26">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N26">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O26">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P26">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q26">
-        <v>249.002955126688</v>
+        <v>40.946506876608</v>
       </c>
       <c r="R26">
-        <v>1494.017730760128</v>
+        <v>245.679041259648</v>
       </c>
       <c r="S26">
-        <v>0.0329237991202772</v>
+        <v>0.0123252338987902</v>
       </c>
       <c r="T26">
-        <v>0.03329126089598396</v>
+        <v>0.01398629073470288</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H27">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I27">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J27">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P27">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q27">
-        <v>15.66263972922755</v>
+        <v>2.338614488576</v>
       </c>
       <c r="R27">
-        <v>140.963757563048</v>
+        <v>21.047530397184</v>
       </c>
       <c r="S27">
-        <v>0.002070953751837989</v>
+        <v>0.0007039421130026952</v>
       </c>
       <c r="T27">
-        <v>0.003141101429580775</v>
+        <v>0.001198217307724663</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H28">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I28">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J28">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N28">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O28">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P28">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q28">
-        <v>46.59015324508221</v>
+        <v>7.864967166656001</v>
       </c>
       <c r="R28">
-        <v>419.31137920574</v>
+        <v>70.78470449990401</v>
       </c>
       <c r="S28">
-        <v>0.006160267638765917</v>
+        <v>0.002367419526834392</v>
       </c>
       <c r="T28">
-        <v>0.009343533369373651</v>
+        <v>0.004029710681178468</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H29">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I29">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J29">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N29">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O29">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P29">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q29">
-        <v>117.9219028756708</v>
+        <v>11.17360044432</v>
       </c>
       <c r="R29">
-        <v>707.531417254025</v>
+        <v>67.04160266592001</v>
       </c>
       <c r="S29">
-        <v>0.01559193159046693</v>
+        <v>0.003363345239262534</v>
       </c>
       <c r="T29">
-        <v>0.01576595278553012</v>
+        <v>0.00381661920120818</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H30">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I30">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J30">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N30">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O30">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P30">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q30">
-        <v>166.3254212772585</v>
+        <v>14.0033865712</v>
       </c>
       <c r="R30">
-        <v>1496.928791495326</v>
+        <v>126.0304791408</v>
       </c>
       <c r="S30">
-        <v>0.02199196694650398</v>
+        <v>0.004215134037815034</v>
       </c>
       <c r="T30">
-        <v>0.03335612818666212</v>
+        <v>0.007174803815821687</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.712396333333333</v>
+        <v>0.554304</v>
       </c>
       <c r="H31">
-        <v>11.137189</v>
+        <v>1.662912</v>
       </c>
       <c r="I31">
-        <v>0.08472080859508559</v>
+        <v>0.02445972585682961</v>
       </c>
       <c r="J31">
-        <v>0.1039709565884512</v>
+        <v>0.03273274523472717</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N31">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O31">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P31">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q31">
-        <v>45.24107831727244</v>
+        <v>4.932261291264</v>
       </c>
       <c r="R31">
-        <v>407.1697048554519</v>
+        <v>44.390351621376</v>
       </c>
       <c r="S31">
-        <v>0.005981889547233577</v>
+        <v>0.001484651041124749</v>
       </c>
       <c r="T31">
-        <v>0.009072979921320621</v>
+        <v>0.002527103494091288</v>
       </c>
     </row>
   </sheetData>
